--- a/medicine/Soins infirmiers et profession infirmière/Hospitalisation/Hospitalisation.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/Hospitalisation/Hospitalisation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hospitalisation est l'admission d'un patient dans un centre hospitalier (hôpital ou clinique).
 Il existe plusieurs modes d'hospitalisation. Le cas général est celui où le patient est adressé par un médecin généraliste ou spécialiste sur la base d'un diagnostic ; le patient prend rendez-vous, il peut se rendre à l'hôpital par ses propres moyens, ou dans une ambulance, le transport étant parfois pris en charge par l'assurance maladie.
